--- a/biology/Zoologie/Acarologie/Acarologie.xlsx
+++ b/biology/Zoologie/Acarologie/Acarologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'acarologie (du grec ἀκαρί / ἄκαρι, akari, un type d'acarien; et -λογία, -logia) est l'étude des acariens et des tiques[1], animaux de l'ordre des Acarina. C'est un sous-domaine de l'arachnologie, une sous-discipline du domaine de la zoologie[2]. Un zoologiste spécialisé en acarologie est appelé acarologue. Les acariologues peuvent également être des parasitologues, car de nombreux membres d'Acarina sont des parasites. De nombreux acarologues étudient dans le monde à la fois professionnellement et en tant qu'amateurs. La discipline est une science en développement et des recherches très attendues ont été fournies dans une histoire plus récente.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'acarologie (du grec ἀκαρί / ἄκαρι, akari, un type d'acarien; et -λογία, -logia) est l'étude des acariens et des tiques, animaux de l'ordre des Acarina. C'est un sous-domaine de l'arachnologie, une sous-discipline du domaine de la zoologie. Un zoologiste spécialisé en acarologie est appelé acarologue. Les acariologues peuvent également être des parasitologues, car de nombreux membres d'Acarina sont des parasites. De nombreux acarologues étudient dans le monde à la fois professionnellement et en tant qu'amateurs. La discipline est une science en développement et des recherches très attendues ont été fournies dans une histoire plus récente.
 </t>
         </is>
       </c>
@@ -511,13 +523,49 @@
           <t>Organisations Acarologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Laboratoire d'acarologie médicale , Académie des sciences de la République tchèque
-Laboratoire de recherche sur les tiques[3] , Université de Rhode Island
-Laboratoire de recherche sur les tiques[4] à l' Université Texas A&amp;M
-Sociétés Acarologiques
-Congrès international d'acarologie
+Laboratoire de recherche sur les tiques , Université de Rhode Island
+Laboratoire de recherche sur les tiques à l' Université Texas A&amp;M</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Acarologie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acarologie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Organisations Acarologiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sociétés Acarologiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Congrès international d'acarologie
 Société Internationale des Acarologues de Langue Française
 Société d'acarologie systématique et appliquée
 Société d'acarologie d'Amérique
@@ -529,31 +577,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Acarologie</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Acarologie</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Acarologues notables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Harry Hoogstraal
 Alfred Nalepa
@@ -564,31 +614,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Acarologie</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Acarologie</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Revues</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les principales revues scientifiques d'acarologie comprennent:
 Acarologia
